--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dodo/Documents/projects/611proj/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81113346-F25D-204D-88E5-F6E4C51D381B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433A876-B135-FB42-ADE5-8A87D26111B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="1020" windowWidth="28080" windowHeight="27020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="-2560" windowWidth="21600" windowHeight="31640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - result" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="327">
-  <si>
-    <t>result</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="544">
   <si>
     <t>LR</t>
   </si>
@@ -46,27 +43,18 @@
     <t>lr tf</t>
   </si>
   <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=5%2F6%2F2018+18%3A19&amp;ce=5%2F6%2F2018+19%3A13&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=xlarge&amp;metric_group=NOGROUPS_%7C_load</t>
-  </si>
-  <si>
     <t>avg</t>
   </si>
   <si>
     <t>lr mx</t>
   </si>
   <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A15&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
     <t>lr spk</t>
   </si>
   <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A04&amp;m=load_one&amp;c=cluster&amp;h=cindy&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</t>
-  </si>
-  <si>
     <t>load five</t>
   </si>
   <si>
@@ -710,15 +698,6 @@
   </si>
   <si>
     <t>155min</t>
-  </si>
-  <si>
-    <t>http://35.185.1.241/ganglia/?r=hour&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+03%3A01&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
-  </si>
-  <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A01&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
-  </si>
-  <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A33&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
   </si>
   <si>
     <t>1.5k</t>
@@ -1035,7 +1014,679 @@
     <t>link</t>
   </si>
   <si>
-    <t>http://35.185.1.241/ganglia/?r=custom&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+04%3A50&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
+    <t>query</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=5%2F6%2F2018+18%3A19&amp;ce=5%2F6%2F2018+19%3A13&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=xlarge&amp;metric_group=NOGROUPS_%7C_load</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A15&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A04&amp;m=load_one&amp;c=cluster&amp;h=cindy&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</t>
+  </si>
+  <si>
+    <t>?r=hour&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+03%3A01&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+04%3A50&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A33&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A01&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</t>
+  </si>
+  <si>
+    <t>http://35.229.127.6/ganglia/</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F16%2F2018+13%3A03&amp;ce=05%2F17%2F2018+16%3A56&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;metric_group=</t>
+  </si>
+  <si>
+    <t>?r=custom&amp;cs=05%2F16%2F2018+18%3A15&amp;ce=05%2F17%2F2018+17%3A43&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;metric_group=</t>
+  </si>
+  <si>
+    <t>156.92m</t>
+  </si>
+  <si>
+    <t>88.78m</t>
+  </si>
+  <si>
+    <t>102.87m</t>
+  </si>
+  <si>
+    <t>322.44m</t>
+  </si>
+  <si>
+    <t>795.44m</t>
+  </si>
+  <si>
+    <t>932.38m</t>
+  </si>
+  <si>
+    <t>316.37m</t>
+  </si>
+  <si>
+    <t>117.44m</t>
+  </si>
+  <si>
+    <t>18.75m</t>
+  </si>
+  <si>
+    <t>1.05m</t>
+  </si>
+  <si>
+    <t>709.38m</t>
+  </si>
+  <si>
+    <t>11.91m</t>
+  </si>
+  <si>
+    <t>7.50m</t>
+  </si>
+  <si>
+    <t>853.45u</t>
+  </si>
+  <si>
+    <t>530.00m</t>
+  </si>
+  <si>
+    <t>137.09m</t>
+  </si>
+  <si>
+    <t>61.50m</t>
+  </si>
+  <si>
+    <t>362.50m</t>
+  </si>
+  <si>
+    <t>63.06m</t>
+  </si>
+  <si>
+    <t>35.00m</t>
+  </si>
+  <si>
+    <t>1.66m</t>
+  </si>
+  <si>
+    <t>169.52m</t>
+  </si>
+  <si>
+    <t>852.50m</t>
+  </si>
+  <si>
+    <t>886.25m</t>
+  </si>
+  <si>
+    <t>25.00m</t>
+  </si>
+  <si>
+    <t>1.62m</t>
+  </si>
+  <si>
+    <t>12.50m</t>
+  </si>
+  <si>
+    <t>666.51u</t>
+  </si>
+  <si>
+    <t>38.13m</t>
+  </si>
+  <si>
+    <t>1.85m</t>
+  </si>
+  <si>
+    <t>56.25m</t>
+  </si>
+  <si>
+    <t>1.81m</t>
+  </si>
+  <si>
+    <t>5.00m</t>
+  </si>
+  <si>
+    <t>508.62u</t>
+  </si>
+  <si>
+    <t>12.75m</t>
+  </si>
+  <si>
+    <t>1.21m</t>
+  </si>
+  <si>
+    <t>325.75m</t>
+  </si>
+  <si>
+    <t>123.16m</t>
+  </si>
+  <si>
+    <t>40.50m</t>
+  </si>
+  <si>
+    <t>421.50m</t>
+  </si>
+  <si>
+    <t>135.69m</t>
+  </si>
+  <si>
+    <t>49.75m</t>
+  </si>
+  <si>
+    <t>455.25m</t>
+  </si>
+  <si>
+    <t>116.77m</t>
+  </si>
+  <si>
+    <t>71.75m</t>
+  </si>
+  <si>
+    <t>9.38m</t>
+  </si>
+  <si>
+    <t>329.95m</t>
+  </si>
+  <si>
+    <t>277.50m</t>
+  </si>
+  <si>
+    <t>6.00m</t>
+  </si>
+  <si>
+    <t>116.12m</t>
+  </si>
+  <si>
+    <t>11.88m</t>
+  </si>
+  <si>
+    <t>130.63m</t>
+  </si>
+  <si>
+    <t>6.25m</t>
+  </si>
+  <si>
+    <t>97.03m</t>
+  </si>
+  <si>
+    <t>22.76m</t>
+  </si>
+  <si>
+    <t>185.00m</t>
+  </si>
+  <si>
+    <t>2.18m</t>
+  </si>
+  <si>
+    <t>775.30m</t>
+  </si>
+  <si>
+    <t>37.88m</t>
+  </si>
+  <si>
+    <t>90.86m</t>
+  </si>
+  <si>
+    <t>1.08m</t>
+  </si>
+  <si>
+    <t>1.09M</t>
+  </si>
+  <si>
+    <t>20.69k</t>
+  </si>
+  <si>
+    <t>71.30m</t>
+  </si>
+  <si>
+    <t>796.00u</t>
+  </si>
+  <si>
+    <t>2.16k</t>
+  </si>
+  <si>
+    <t>315.19m</t>
+  </si>
+  <si>
+    <t>685.43k</t>
+  </si>
+  <si>
+    <t>5.51k</t>
+  </si>
+  <si>
+    <t>85.33m</t>
+  </si>
+  <si>
+    <t>288.29u</t>
+  </si>
+  <si>
+    <t>120.07m</t>
+  </si>
+  <si>
+    <t>400.17m</t>
+  </si>
+  <si>
+    <t>110.40m</t>
+  </si>
+  <si>
+    <t>5.14m</t>
+  </si>
+  <si>
+    <t>1.45M</t>
+  </si>
+  <si>
+    <t>43.32k</t>
+  </si>
+  <si>
+    <t>93.82m</t>
+  </si>
+  <si>
+    <t>4.68m</t>
+  </si>
+  <si>
+    <t>2.53k</t>
+  </si>
+  <si>
+    <t>558.05m</t>
+  </si>
+  <si>
+    <t>920.33k</t>
+  </si>
+  <si>
+    <t>9.27k</t>
+  </si>
+  <si>
+    <t>2.33k</t>
+  </si>
+  <si>
+    <t>106.85m</t>
+  </si>
+  <si>
+    <t>460.84u</t>
+  </si>
+  <si>
+    <t>257.89m</t>
+  </si>
+  <si>
+    <t>55.10m</t>
+  </si>
+  <si>
+    <t>859.49m</t>
+  </si>
+  <si>
+    <t>183.63m</t>
+  </si>
+  <si>
+    <t>569.28k</t>
+  </si>
+  <si>
+    <t>110.96k</t>
+  </si>
+  <si>
+    <t>20.46m</t>
+  </si>
+  <si>
+    <t>4.44m</t>
+  </si>
+  <si>
+    <t>93.53m</t>
+  </si>
+  <si>
+    <t>20.49m</t>
+  </si>
+  <si>
+    <t>4.47m</t>
+  </si>
+  <si>
+    <t>9.98u</t>
+  </si>
+  <si>
+    <t>3.75k</t>
+  </si>
+  <si>
+    <t>2.84k</t>
+  </si>
+  <si>
+    <t>2.50k</t>
+  </si>
+  <si>
+    <t>99.90u</t>
+  </si>
+  <si>
+    <t>29.23u</t>
+  </si>
+  <si>
+    <t>8.65u</t>
+  </si>
+  <si>
+    <t>8.34k</t>
+  </si>
+  <si>
+    <t>7.07k</t>
+  </si>
+  <si>
+    <t>4.52k</t>
+  </si>
+  <si>
+    <t>175.83k</t>
+  </si>
+  <si>
+    <t>165.26k</t>
+  </si>
+  <si>
+    <t>77.26k</t>
+  </si>
+  <si>
+    <t>33.09k</t>
+  </si>
+  <si>
+    <t>21.75k</t>
+  </si>
+  <si>
+    <t>9.52k</t>
+  </si>
+  <si>
+    <t>16.12M</t>
+  </si>
+  <si>
+    <t>15.55M</t>
+  </si>
+  <si>
+    <t>15.48M</t>
+  </si>
+  <si>
+    <t>112.07M</t>
+  </si>
+  <si>
+    <t>98.39M</t>
+  </si>
+  <si>
+    <t>63.96M</t>
+  </si>
+  <si>
+    <t>630.36m</t>
+  </si>
+  <si>
+    <t>93.77k</t>
+  </si>
+  <si>
+    <t>38.31k</t>
+  </si>
+  <si>
+    <t>27.78k</t>
+  </si>
+  <si>
+    <t>711.64k</t>
+  </si>
+  <si>
+    <t>469.08k</t>
+  </si>
+  <si>
+    <t>260.16k</t>
+  </si>
+  <si>
+    <t>15.08M</t>
+  </si>
+  <si>
+    <t>90.79k</t>
+  </si>
+  <si>
+    <t>5.43k</t>
+  </si>
+  <si>
+    <t>15.53M</t>
+  </si>
+  <si>
+    <t>15.23M</t>
+  </si>
+  <si>
+    <t>14.83M</t>
+  </si>
+  <si>
+    <t>160.39M</t>
+  </si>
+  <si>
+    <t>150.15M</t>
+  </si>
+  <si>
+    <t>128.16M</t>
+  </si>
+  <si>
+    <t>94.90m</t>
+  </si>
+  <si>
+    <t>1.42k</t>
+  </si>
+  <si>
+    <t>63.65k</t>
+  </si>
+  <si>
+    <t>13.08k</t>
+  </si>
+  <si>
+    <t>6.78k</t>
+  </si>
+  <si>
+    <t>293.83k</t>
+  </si>
+  <si>
+    <t>253.31k</t>
+  </si>
+  <si>
+    <t>200.52k</t>
+  </si>
+  <si>
+    <t>8.55M</t>
+  </si>
+  <si>
+    <t>63.82k</t>
+  </si>
+  <si>
+    <t>9.94M</t>
+  </si>
+  <si>
+    <t>8.45M</t>
+  </si>
+  <si>
+    <t>8.27M</t>
+  </si>
+  <si>
+    <t>116.12M</t>
+  </si>
+  <si>
+    <t>106.04M</t>
+  </si>
+  <si>
+    <t>96.83M</t>
+  </si>
+  <si>
+    <t>73.94m</t>
+  </si>
+  <si>
+    <t>1.07k</t>
+  </si>
+  <si>
+    <t>2.34k</t>
+  </si>
+  <si>
+    <t>1.47k</t>
+  </si>
+  <si>
+    <t>1.10k</t>
+  </si>
+  <si>
+    <t>989.04m</t>
+  </si>
+  <si>
+    <t>270.00m</t>
+  </si>
+  <si>
+    <t>774.20m</t>
+  </si>
+  <si>
+    <t>447.78m</t>
+  </si>
+  <si>
+    <t>1.68k</t>
+  </si>
+  <si>
+    <t>1.16k</t>
+  </si>
+  <si>
+    <t>744.4M</t>
+  </si>
+  <si>
+    <t>690.7M</t>
+  </si>
+  <si>
+    <t>214.8M</t>
+  </si>
+  <si>
+    <t>171.7M</t>
+  </si>
+  <si>
+    <t>161.4M</t>
+  </si>
+  <si>
+    <t>75.4M</t>
+  </si>
+  <si>
+    <t>8.1M</t>
+  </si>
+  <si>
+    <t>6.9M</t>
+  </si>
+  <si>
+    <t>4.4M</t>
+  </si>
+  <si>
+    <t>156.9m</t>
+  </si>
+  <si>
+    <t>2.3k</t>
+  </si>
+  <si>
+    <t>765.1M</t>
+  </si>
+  <si>
+    <t>667.6M</t>
+  </si>
+  <si>
+    <t>476.5M</t>
+  </si>
+  <si>
+    <t>694.9M</t>
+  </si>
+  <si>
+    <t>457.5M</t>
+  </si>
+  <si>
+    <t>261.0M</t>
+  </si>
+  <si>
+    <t>91.5M</t>
+  </si>
+  <si>
+    <t>37.4M</t>
+  </si>
+  <si>
+    <t>30.7M</t>
+  </si>
+  <si>
+    <t>922.0m</t>
+  </si>
+  <si>
+    <t>9.0k</t>
+  </si>
+  <si>
+    <t>22.47k</t>
+  </si>
+  <si>
+    <t>1.81k</t>
+  </si>
+  <si>
+    <t>1.13k</t>
+  </si>
+  <si>
+    <t>15.09k</t>
+  </si>
+  <si>
+    <t>411.84m</t>
+  </si>
+  <si>
+    <t>203.29m</t>
+  </si>
+  <si>
+    <t>1.65k</t>
+  </si>
+  <si>
+    <t>424.75m</t>
+  </si>
+  <si>
+    <t>30.00m</t>
+  </si>
+  <si>
+    <t>7.4G</t>
+  </si>
+  <si>
+    <t>7.3G</t>
+  </si>
+  <si>
+    <t>5.2G</t>
+  </si>
+  <si>
+    <t>203.1M</t>
+  </si>
+  <si>
+    <t>384.6M</t>
+  </si>
+  <si>
+    <t>247.3M</t>
+  </si>
+  <si>
+    <t>62.0M</t>
+  </si>
+  <si>
+    <t>12.8M</t>
+  </si>
+  <si>
+    <t>7.1M</t>
+  </si>
+  <si>
+    <t>667.6m</t>
+  </si>
+  <si>
+    <t>710.0m</t>
+  </si>
+  <si>
+    <t>12.62k</t>
+  </si>
+  <si>
+    <t>1.94k</t>
+  </si>
+  <si>
+    <t>1.57k</t>
+  </si>
+  <si>
+    <t>516.83m</t>
+  </si>
+  <si>
+    <t>13.18k</t>
+  </si>
+  <si>
+    <t>433.19m</t>
+  </si>
+  <si>
+    <t>234.14m</t>
+  </si>
+  <si>
+    <t>1.97k</t>
+  </si>
+  <si>
+    <t>1.60k</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1087,8 +1738,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC0BF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1325,6 +1998,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1334,7 +2048,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1371,13 +2085,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1385,15 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1404,9 +2103,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,19 +2112,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +2127,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,6 +2140,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2616,123 +3360,137 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV178"/>
+  <dimension ref="A1:XFD178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.83203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" style="16" customWidth="1"/>
-    <col min="7" max="8" width="15.83203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="16" customWidth="1"/>
-    <col min="10" max="11" width="15.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" style="14" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="14" customWidth="1"/>
+    <col min="10" max="11" width="15.83203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="15" customWidth="1"/>
-    <col min="16" max="256" width="8.33203125" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="8.33203125" style="2"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="13" customWidth="1"/>
+    <col min="18" max="258" width="8.33203125" style="1" customWidth="1"/>
+    <col min="259" max="16384" width="8.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="30"/>
+      <c r="J2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="J2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="47"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O2" s="3"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>245</v>
+      <c r="C3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+        <v>316</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="O4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>1.36</v>
@@ -2746,23 +3504,34 @@
       <c r="G5" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="H5" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1.66</v>
+      </c>
       <c r="M5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f>_xlfn.CONCAT($O$4,$P5)</f>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=5%2F6%2F2018+18%3A19&amp;ce=5%2F6%2F2018+19%3A13&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=xlarge&amp;metric_group=NOGROUPS_%7C_load</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="10">
         <v>689.24</v>
@@ -2771,60 +3540,82 @@
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G6" s="10">
         <v>1.94</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="H6" s="10">
+        <v>1.41</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1.43</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+        <v>222</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f t="shared" ref="Q6:Q13" si="0">_xlfn.CONCAT($O$4,$P6)</f>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A15&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
         <v>150</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="22">
+      <c r="D7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="17">
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>336</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
-        <v>15</v>
+        <v>224</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A04&amp;m=load_one&amp;c=cluster&amp;h=cindy&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10">
         <v>830</v>
@@ -2833,22 +3624,30 @@
         <v>1.29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="10">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2.08</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.55</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10">
         <v>685</v>
@@ -2857,28 +3656,39 @@
         <v>970.93</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G9" s="10">
         <v>1.84</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="H9" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1.43</v>
+      </c>
       <c r="M9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+        <v>221</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://35.229.127.6/ganglia/?r=hour&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+03%3A01&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
         <v>530</v>
@@ -2887,30 +3697,41 @@
         <v>220</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>337</v>
+      </c>
       <c r="M10" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
-        <v>18</v>
+        <v>315</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+04%3A50&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10">
         <v>720</v>
@@ -2919,22 +3740,30 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2.02</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1.51</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10">
         <v>659.21</v>
@@ -2943,28 +3772,39 @@
         <v>935.03</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="10">
         <v>1.76</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="J12" s="48">
+        <v>1.99</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1.42</v>
+      </c>
       <c r="M12" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+        <v>220</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A33&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10">
         <v>580</v>
@@ -2973,48 +3813,61 @@
         <v>540</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>338</v>
+      </c>
       <c r="M13" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+        <v>225</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A01&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
-        <v>247</v>
+      <c r="O14" s="7"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="10">
         <v>100</v>
@@ -3028,17 +3881,34 @@
       <c r="G15" s="10">
         <v>100</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="H15" s="10">
+        <v>93.53</v>
+      </c>
+      <c r="J15" s="10">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="K15" s="10">
+        <v>36.33</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7">
+        <v>185.7</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q15" s="12" t="str">
+        <f>_xlfn.CONCAT($O$4,$P15)</f>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F16%2F2018+13%3A03&amp;ce=05%2F17%2F2018+16%3A56&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;metric_group=</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="10">
         <v>68.319999999999993</v>
@@ -3052,17 +3922,34 @@
       <c r="G16" s="10">
         <v>7.34</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
+      <c r="H16" s="10">
+        <v>10.42</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K16" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7">
+        <v>156.4</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q16" s="12" t="str">
+        <f>_xlfn.CONCAT($O$4,$P16)</f>
+        <v>http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F16%2F2018+18%3A15&amp;ce=05%2F17%2F2018+17%3A43&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;metric_group=</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10">
         <v>21.66</v>
@@ -3073,22 +3960,30 @@
       <c r="E17" s="10">
         <v>11.5</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="10">
+        <v>25.51</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="K17" s="10">
+        <v>25.85</v>
+      </c>
+      <c r="M17" s="43"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
-        <v>255</v>
+      <c r="O17" s="7"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31" t="s">
+        <v>248</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="10">
         <v>100</v>
@@ -3102,17 +3997,25 @@
       <c r="G18" s="10">
         <v>99.9</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="H18" s="10">
+        <v>93.58</v>
+      </c>
+      <c r="J18" s="10">
+        <v>15.63</v>
+      </c>
+      <c r="K18" s="10">
+        <v>61.49</v>
+      </c>
+      <c r="M18" s="43"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="10">
         <v>67.12</v>
@@ -3126,17 +4029,25 @@
       <c r="G19" s="10">
         <v>7.04</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="H19" s="10">
+        <v>27.6</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="K19" s="10">
+        <v>47.06</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="10">
         <v>13.5</v>
@@ -3147,22 +4058,30 @@
       <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="G20" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
-        <v>256</v>
+      <c r="O20" s="7"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
+        <v>249</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10">
         <v>100</v>
@@ -3176,17 +4095,25 @@
       <c r="G21" s="10">
         <v>100</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="10">
+        <v>94.83</v>
+      </c>
+      <c r="J21" s="10">
+        <v>18.52</v>
+      </c>
+      <c r="K21" s="10">
+        <v>57.22</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="10">
         <v>69.22</v>
@@ -3200,17 +4127,25 @@
       <c r="G22" s="10">
         <v>7.6</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="10">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="10">
+        <v>10.02</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="10">
         <v>19.600000000000001</v>
@@ -3221,250 +4156,324 @@
       <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="G23" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="10">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
-        <v>248</v>
+      <c r="O23" s="7"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>340</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
-        <v>265</v>
+      <c r="O26" s="7"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="31" t="s">
+        <v>258</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="22">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17">
         <v>0</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="E27" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="26"/>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="22">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17">
         <v>0</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="E28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
       <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
-        <v>266</v>
+      <c r="O29" s="7"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>357</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
       <c r="B31" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>358</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
       <c r="B32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29" t="s">
-        <v>251</v>
+      <c r="O32" s="7"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="10">
         <v>19.52</v>
@@ -3478,17 +4487,25 @@
       <c r="G33" s="10">
         <v>52.81</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2.73</v>
+      </c>
+      <c r="K33" s="10">
+        <v>3.77</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="10">
         <v>6.86</v>
@@ -3496,51 +4513,65 @@
       <c r="D34" s="10">
         <v>1.69</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>139</v>
+      <c r="E34" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="G34" s="10">
         <v>9.83</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
       <c r="B35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>381</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>263</v>
+      <c r="O35" s="7"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="10">
         <v>21.52</v>
@@ -3554,17 +4585,25 @@
       <c r="G36" s="10">
         <v>52.26</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="H36" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2.94</v>
+      </c>
+      <c r="K36" s="10">
+        <v>6.79</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="26"/>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="10">
         <v>6.95</v>
@@ -3572,51 +4611,65 @@
       <c r="D37" s="10">
         <v>1.82</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>147</v>
+      <c r="E37" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="G37" s="10">
         <v>9.85</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="H37" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>382</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
       <c r="B38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1.79</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="s">
-        <v>264</v>
+      <c r="O38" s="7"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="10">
         <v>20.9</v>
@@ -3630,17 +4683,25 @@
       <c r="G39" s="10">
         <v>53.28</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="H39" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2.94</v>
+      </c>
+      <c r="K39" s="10">
+        <v>6.39</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="26"/>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40" s="10">
         <v>4.74</v>
@@ -3648,51 +4709,65 @@
       <c r="D40" s="10">
         <v>1.57</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>148</v>
+      <c r="E40" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="G40" s="10">
         <v>9.77</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="H40" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2.31</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>384</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="27"/>
       <c r="B41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1.73</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
-        <v>254</v>
+      <c r="O41" s="7"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -3706,67 +4781,92 @@
       <c r="G42" s="10">
         <v>17.3</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="H42" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1.73</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>341</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="26"/>
       <c r="B43" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="27"/>
       <c r="B44" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="10">
         <v>8.56</v>
       </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="D44" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="s">
-        <v>262</v>
+      <c r="O44" s="7"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="12"/>
+      <c r="XFD44" s="18"/>
+    </row>
+    <row r="45" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="10">
         <v>15.85</v>
@@ -3780,75 +4880,97 @@
       <c r="G45" s="10">
         <v>34.200000000000003</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="H45" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" s="10">
+        <v>3.42</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1.4</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="26"/>
       <c r="B46" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>149</v>
+        <v>23</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E46" s="10">
         <v>1.62</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="G46" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>385</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="27"/>
       <c r="B47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29" t="s">
-        <v>267</v>
+      <c r="O47" s="7"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="1:17 16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="31" t="s">
+        <v>260</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="10">
         <v>1.44</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>150</v>
+      <c r="D48" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E48" s="10">
         <v>1.26</v>
@@ -3856,69 +4978,91 @@
       <c r="G48" s="10">
         <v>1.72</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="H48" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>386</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="26"/>
       <c r="B49" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="27"/>
       <c r="B50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="51" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="29" t="s">
-        <v>252</v>
+      <c r="O50" s="7"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="10">
         <v>75.7</v>
@@ -3932,17 +5076,25 @@
       <c r="G51" s="10">
         <v>88.8</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="H51" s="10">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="J51" s="10">
+        <v>97.1</v>
+      </c>
+      <c r="K51" s="10">
+        <v>72.739999999999995</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="26"/>
       <c r="B52" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="10">
         <v>24.41</v>
@@ -3956,63 +5108,79 @@
       <c r="G52" s="10">
         <v>82.55</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="H52" s="10">
+        <v>69.39</v>
+      </c>
+      <c r="J52" s="10">
+        <v>95.94</v>
+      </c>
+      <c r="K52" s="10">
+        <v>71.349999999999994</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="27"/>
       <c r="B53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="18">
+        <v>6</v>
+      </c>
+      <c r="J53" s="10">
+        <v>80.06</v>
+      </c>
+      <c r="K53" s="10">
+        <v>59.9</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="12"/>
+    </row>
+    <row r="54" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
-        <v>273</v>
+      <c r="O54" s="7"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="31" t="s">
+        <v>266</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="10">
         <v>3.06</v>
@@ -4026,69 +5194,91 @@
       <c r="G55" s="10">
         <v>4.22</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="H55" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>388</v>
+      </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="13"/>
-    </row>
-    <row r="56" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="26"/>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="13"/>
-    </row>
-    <row r="57" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="27"/>
       <c r="B57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="13"/>
-    </row>
-    <row r="58" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29" t="s">
-        <v>270</v>
+      <c r="O57" s="7"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="31" t="s">
+        <v>263</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="10">
         <v>10.210000000000001</v>
@@ -4102,269 +5292,351 @@
       <c r="G58" s="10">
         <v>14.08</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="H58" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J58" s="10">
+        <v>3.86</v>
+      </c>
+      <c r="K58" s="10">
+        <v>2.58</v>
+      </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="13"/>
-    </row>
-    <row r="59" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="12"/>
+    </row>
+    <row r="59" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="26"/>
       <c r="B59" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" s="10">
         <v>1.34</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>155</v>
+      <c r="D59" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E59" s="10">
         <v>2.68</v>
       </c>
-      <c r="G59" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="G59" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>389</v>
+      </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="13"/>
-    </row>
-    <row r="60" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="27"/>
       <c r="B60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="13"/>
-    </row>
-    <row r="61" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29" t="s">
-        <v>284</v>
+      <c r="O60" s="7"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="12"/>
+    </row>
+    <row r="61" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="31" t="s">
+        <v>277</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>390</v>
+      </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="13"/>
-    </row>
-    <row r="62" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="26"/>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="H62" s="10"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>391</v>
+      </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="13"/>
-    </row>
-    <row r="63" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="12"/>
+    </row>
+    <row r="63" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="27"/>
       <c r="B63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="13"/>
-    </row>
-    <row r="64" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
-        <v>272</v>
+      <c r="O63" s="7"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="12"/>
+    </row>
+    <row r="64" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="31" t="s">
+        <v>265</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>392</v>
+      </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="13"/>
-    </row>
-    <row r="65" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row r="65" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="26"/>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="H65" s="10"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>393</v>
+      </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="13"/>
-    </row>
-    <row r="66" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="66" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="27"/>
       <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
-        <v>274</v>
+      <c r="O66" s="7"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="12"/>
+    </row>
+    <row r="67" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="31" t="s">
+        <v>267</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>398</v>
+      </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="30"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="12"/>
+    </row>
+    <row r="68" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="26"/>
       <c r="B68" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="13"/>
-    </row>
-    <row r="69" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="12"/>
+    </row>
+    <row r="69" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="27"/>
       <c r="B69" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" s="10">
         <v>819.2</v>
@@ -4378,195 +5650,255 @@
       <c r="G69" s="10">
         <v>682.63</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="H69" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>203</v>
+      </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="13"/>
-    </row>
-    <row r="70" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29" t="s">
-        <v>277</v>
+      <c r="O69" s="7"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="70" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="31" t="s">
+        <v>270</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" s="10"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>394</v>
+      </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="71" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="26"/>
       <c r="B71" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>395</v>
+      </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="13"/>
-    </row>
-    <row r="72" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="27"/>
       <c r="B72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" s="49" t="s">
+        <v>236</v>
+      </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
-        <v>278</v>
+      <c r="O72" s="7"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="12"/>
+    </row>
+    <row r="73" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>400</v>
+      </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="30"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="12"/>
+    </row>
+    <row r="74" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="26"/>
       <c r="B74" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>401</v>
+      </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="12"/>
+    </row>
+    <row r="75" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="27"/>
       <c r="B75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29" t="s">
-        <v>282</v>
+      <c r="O75" s="7"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="12"/>
+    </row>
+    <row r="76" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="31" t="s">
+        <v>275</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H76" s="10">
+        <v>525.53</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="13"/>
-    </row>
-    <row r="77" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="30"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="12"/>
+    </row>
+    <row r="77" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="26"/>
       <c r="B77" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" s="10">
         <v>796.36</v>
@@ -4574,51 +5906,65 @@
       <c r="D77" s="10">
         <v>577.61</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>166</v>
+      <c r="E77" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="G77" s="10">
         <v>516.11</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="H77" s="10">
+        <v>103.31</v>
+      </c>
+      <c r="J77" s="10">
+        <v>196.74</v>
+      </c>
+      <c r="K77" s="10">
+        <v>18.52</v>
+      </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="12"/>
+    </row>
+    <row r="78" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="27"/>
       <c r="B78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="13"/>
-    </row>
-    <row r="79" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="35" t="s">
-        <v>42</v>
+      <c r="O78" s="7"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="12"/>
+    </row>
+    <row r="79" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="10">
         <v>27</v>
@@ -4632,17 +5978,25 @@
       <c r="G79" s="10">
         <v>27</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
+      <c r="H79" s="10">
+        <v>16.04</v>
+      </c>
+      <c r="J79" s="10">
+        <v>357.11</v>
+      </c>
+      <c r="K79" s="10">
+        <v>107.62</v>
+      </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="13"/>
-    </row>
-    <row r="80" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="12"/>
+    </row>
+    <row r="80" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="26"/>
       <c r="B80" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C80" s="10">
         <v>12.63</v>
@@ -4656,17 +6010,25 @@
       <c r="G80" s="10">
         <v>12.61</v>
       </c>
-      <c r="H80" s="10"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="H80" s="10">
+        <v>11.61</v>
+      </c>
+      <c r="J80" s="10">
+        <v>27.8</v>
+      </c>
+      <c r="K80" s="10">
+        <v>11.98</v>
+      </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="13"/>
-    </row>
-    <row r="81" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="12"/>
+    </row>
+    <row r="81" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="27"/>
       <c r="B81" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" s="10">
         <v>4</v>
@@ -4680,19 +6042,27 @@
       <c r="G81" s="10">
         <v>3</v>
       </c>
-      <c r="H81" s="10"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="H81" s="10">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J81" s="10">
+        <v>9.06</v>
+      </c>
+      <c r="K81" s="10">
+        <v>4.0599999999999996</v>
+      </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="13"/>
-    </row>
-    <row r="82" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="35" t="s">
-        <v>43</v>
+      <c r="O81" s="7"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="12"/>
+    </row>
+    <row r="82" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="10">
         <v>3</v>
@@ -4706,69 +6076,91 @@
       <c r="G82" s="10">
         <v>11</v>
       </c>
-      <c r="H82" s="10"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="H82" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="J82" s="10">
+        <v>338.06</v>
+      </c>
+      <c r="K82" s="10">
+        <v>160.12</v>
+      </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="13"/>
-    </row>
-    <row r="83" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="12"/>
+    </row>
+    <row r="83" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="26"/>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="H83" s="10"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="K83" s="17" t="s">
+        <v>397</v>
+      </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="13"/>
-    </row>
-    <row r="84" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="12"/>
+    </row>
+    <row r="84" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="27"/>
       <c r="B84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="13"/>
-    </row>
-    <row r="85" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="35" t="s">
-        <v>45</v>
+      <c r="O84" s="7"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="12"/>
+    </row>
+    <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="10">
         <v>19</v>
@@ -4782,17 +6174,25 @@
       <c r="G85" s="10">
         <v>29</v>
       </c>
-      <c r="H85" s="10"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="H85" s="10">
+        <v>13.34</v>
+      </c>
+      <c r="J85" s="10">
+        <v>406.05</v>
+      </c>
+      <c r="K85" s="10">
+        <v>334.59</v>
+      </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="13"/>
-    </row>
-    <row r="86" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="30"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="12"/>
+    </row>
+    <row r="86" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="26"/>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C86" s="10">
         <v>9.7200000000000006</v>
@@ -4806,17 +6206,25 @@
       <c r="G86" s="10">
         <v>10.3</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="H86" s="10">
+        <v>9.16</v>
+      </c>
+      <c r="J86" s="10">
+        <v>28.67</v>
+      </c>
+      <c r="K86" s="10">
+        <v>10.11</v>
+      </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="12"/>
+    </row>
+    <row r="87" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="27"/>
       <c r="B87" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C87" s="10">
         <v>2</v>
@@ -4830,427 +6238,557 @@
       <c r="G87" s="10">
         <v>2</v>
       </c>
-      <c r="H87" s="10"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+      <c r="H87" s="10">
+        <v>7.73</v>
+      </c>
+      <c r="J87" s="10">
+        <v>7.17</v>
+      </c>
+      <c r="K87" s="10">
+        <v>3.86</v>
+      </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="13"/>
-    </row>
-    <row r="88" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="34"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="12"/>
+    </row>
+    <row r="88" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="24"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="13"/>
-    </row>
-    <row r="89" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29" t="s">
-        <v>293</v>
+      <c r="O88" s="7"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="12"/>
+    </row>
+    <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>468</v>
+      </c>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="13"/>
-    </row>
-    <row r="90" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="12"/>
+    </row>
+    <row r="90" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="26"/>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="H90" s="10"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>469</v>
+      </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="13"/>
-    </row>
-    <row r="91" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="12"/>
+    </row>
+    <row r="91" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="27"/>
       <c r="B91" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" s="10"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>470</v>
+      </c>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="13"/>
-    </row>
-    <row r="92" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="29" t="s">
-        <v>294</v>
+      <c r="O91" s="7"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="12"/>
+    </row>
+    <row r="92" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="H92" s="10"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>471</v>
+      </c>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="13"/>
-    </row>
-    <row r="93" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="12"/>
+    </row>
+    <row r="93" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="26"/>
       <c r="B93" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H93" s="10"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>472</v>
+      </c>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="13"/>
-    </row>
-    <row r="94" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="12"/>
+    </row>
+    <row r="94" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="27"/>
       <c r="B94" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="H94" s="10"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>473</v>
+      </c>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="13"/>
-    </row>
-    <row r="95" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="29" t="s">
-        <v>295</v>
+      <c r="O94" s="7"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="12"/>
+    </row>
+    <row r="95" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>474</v>
+      </c>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
-      <c r="O95" s="13"/>
-    </row>
-    <row r="96" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="12"/>
+    </row>
+    <row r="96" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="26"/>
       <c r="B96" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="H96" s="10"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>475</v>
+      </c>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="13"/>
-    </row>
-    <row r="97" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="12"/>
+    </row>
+    <row r="97" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="27"/>
       <c r="B97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0</v>
+      </c>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
-      <c r="O97" s="13"/>
-    </row>
-    <row r="98" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29" t="s">
-        <v>296</v>
+      <c r="O97" s="7"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="12"/>
+    </row>
+    <row r="98" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" s="10"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>476</v>
+      </c>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
-      <c r="O98" s="13"/>
-    </row>
-    <row r="99" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="30"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="12"/>
+    </row>
+    <row r="99" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="26"/>
       <c r="B99" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H99" s="10"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>477</v>
+      </c>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
-      <c r="O99" s="13"/>
-    </row>
-    <row r="100" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="31"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="12"/>
+    </row>
+    <row r="100" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="27"/>
       <c r="B100" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="H100" s="10"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>478</v>
+      </c>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
-      <c r="O100" s="13"/>
-    </row>
-    <row r="101" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="29" t="s">
-        <v>297</v>
+      <c r="O100" s="7"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="12"/>
+    </row>
+    <row r="101" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="H101" s="10"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>479</v>
+      </c>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
-      <c r="O101" s="13"/>
-    </row>
-    <row r="102" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="30"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="12"/>
+    </row>
+    <row r="102" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="26"/>
       <c r="B102" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H102" s="10"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>480</v>
+      </c>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
-      <c r="O102" s="13"/>
-    </row>
-    <row r="103" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="31"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="12"/>
+    </row>
+    <row r="103" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="27"/>
       <c r="B103" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="H103" s="10"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>481</v>
+      </c>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
-      <c r="O103" s="13"/>
-    </row>
-    <row r="104" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="34"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="12"/>
+    </row>
+    <row r="104" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="24"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
-      <c r="O104" s="13"/>
-    </row>
-    <row r="105" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="29" t="s">
-        <v>309</v>
+      <c r="O104" s="7"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="12"/>
+    </row>
+    <row r="105" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="10">
         <v>25.59</v>
@@ -5264,17 +6802,25 @@
       <c r="G105" s="10">
         <v>30.73</v>
       </c>
-      <c r="H105" s="10"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+      <c r="H105" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J105" s="10">
+        <v>7.02</v>
+      </c>
+      <c r="K105" s="10">
+        <v>4.46</v>
+      </c>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="13"/>
-    </row>
-    <row r="106" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="30"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="12"/>
+    </row>
+    <row r="106" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="26"/>
       <c r="B106" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C106" s="10">
         <v>3.48</v>
@@ -5288,121 +6834,157 @@
       <c r="G106" s="10">
         <v>2.11</v>
       </c>
-      <c r="H106" s="10"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
+      <c r="H106" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>482</v>
+      </c>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
-      <c r="O106" s="13"/>
-    </row>
-    <row r="107" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="31"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="12"/>
+    </row>
+    <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="27"/>
       <c r="B107" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K107" s="45" t="s">
+        <v>236</v>
+      </c>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="29" t="s">
-        <v>310</v>
+      <c r="O107" s="7"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="12"/>
+    </row>
+    <row r="108" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="31" t="s">
+        <v>303</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="H108" s="10"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" s="10">
+        <v>556.24</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>483</v>
+      </c>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="30"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="12"/>
+    </row>
+    <row r="109" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="26"/>
       <c r="B109" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>209</v>
+        <v>59</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="G109" s="10">
         <v>411.8</v>
       </c>
-      <c r="H109" s="10"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="H109" s="10">
+        <v>108.32</v>
+      </c>
+      <c r="J109" s="10">
+        <v>42.32</v>
+      </c>
+      <c r="K109" s="10">
+        <v>20.2</v>
+      </c>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
-      <c r="O109" s="13"/>
-    </row>
-    <row r="110" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="31"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="12"/>
+    </row>
+    <row r="110" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="27"/>
       <c r="B110" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J110" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
-      <c r="O110" s="13"/>
-    </row>
-    <row r="111" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="29" t="s">
-        <v>312</v>
+      <c r="O110" s="7"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="12"/>
+    </row>
+    <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="10">
         <v>6.13</v>
@@ -5416,17 +6998,25 @@
       <c r="G111" s="10">
         <v>7.47</v>
       </c>
-      <c r="H111" s="10"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+      <c r="H111" s="10">
+        <v>3.62</v>
+      </c>
+      <c r="J111" s="10">
+        <v>898.9</v>
+      </c>
+      <c r="K111" s="10">
+        <v>669.43</v>
+      </c>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
-      <c r="O111" s="13"/>
-    </row>
-    <row r="112" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="30"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="12"/>
+    </row>
+    <row r="112" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="26"/>
       <c r="B112" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C112" s="10">
         <v>2.97</v>
@@ -5440,59 +7030,79 @@
       <c r="G112" s="10">
         <v>3.22</v>
       </c>
-      <c r="H112" s="10"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="H112" s="10">
+        <v>2.77</v>
+      </c>
+      <c r="J112" s="10">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K112" s="10">
+        <v>5.37</v>
+      </c>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
-      <c r="O112" s="13"/>
-    </row>
-    <row r="113" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="31"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="12"/>
+    </row>
+    <row r="113" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="27"/>
       <c r="B113" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>205</v>
+        <v>60</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="E113" s="10">
         <v>0</v>
       </c>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
+      <c r="G113" s="18">
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J113" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="K113" s="10">
+        <v>1.04</v>
+      </c>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
-      <c r="O113" s="13"/>
-    </row>
-    <row r="114" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="34"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="12"/>
+    </row>
+    <row r="114" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="24"/>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
-      <c r="O114" s="13"/>
-    </row>
-    <row r="115" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="29" t="s">
-        <v>316</v>
+      <c r="O114" s="7"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="12"/>
+    </row>
+    <row r="115" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="31" t="s">
+        <v>309</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="10">
         <v>279.26</v>
@@ -5506,17 +7116,25 @@
       <c r="G115" s="10">
         <v>364.02</v>
       </c>
-      <c r="H115" s="10"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
+      <c r="H115" s="10">
+        <v>399.88</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>535</v>
+      </c>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
-      <c r="O115" s="13"/>
-    </row>
-    <row r="116" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="12"/>
+    </row>
+    <row r="116" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="26"/>
       <c r="B116" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C116" s="10">
         <v>143.74</v>
@@ -5530,17 +7148,25 @@
       <c r="G116" s="10">
         <v>165.22</v>
       </c>
-      <c r="H116" s="10"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
+      <c r="H116" s="10">
+        <v>177.52</v>
+      </c>
+      <c r="J116" s="10">
+        <v>201.53</v>
+      </c>
+      <c r="K116" s="10">
+        <v>218.69</v>
+      </c>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
-      <c r="O116" s="13"/>
-    </row>
-    <row r="117" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="31"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="12"/>
+    </row>
+    <row r="117" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="27"/>
       <c r="B117" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C117" s="10">
         <v>4.4000000000000004</v>
@@ -5554,67 +7180,91 @@
       <c r="G117" s="10">
         <v>20.13</v>
       </c>
-      <c r="H117" s="10"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="H117" s="10">
+        <v>23.23</v>
+      </c>
+      <c r="J117" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="K117" s="10">
+        <v>20.12</v>
+      </c>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
-      <c r="O117" s="13"/>
-    </row>
-    <row r="118" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="29" t="s">
-        <v>317</v>
+      <c r="O117" s="7"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="12"/>
+    </row>
+    <row r="118" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="31" t="s">
+        <v>310</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="H118" s="10"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>536</v>
+      </c>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
-      <c r="O118" s="13"/>
-    </row>
-    <row r="119" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="30"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="12"/>
+    </row>
+    <row r="119" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="26"/>
       <c r="B119" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G119" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E119" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="H119" s="10"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
+      <c r="G119" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>537</v>
+      </c>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
-      <c r="O119" s="13"/>
-    </row>
-    <row r="120" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="31"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="12"/>
+    </row>
+    <row r="120" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="27"/>
       <c r="B120" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C120" s="10">
         <v>719.6</v>
@@ -5628,19 +7278,27 @@
       <c r="G120" s="10">
         <v>764.49</v>
       </c>
-      <c r="H120" s="10"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
+      <c r="H120" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="J120" s="10">
+        <v>677.73</v>
+      </c>
+      <c r="K120" s="10">
+        <v>647.84</v>
+      </c>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
-      <c r="O120" s="13"/>
-    </row>
-    <row r="121" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="35" t="s">
-        <v>68</v>
+      <c r="O120" s="7"/>
+      <c r="P120" s="36"/>
+      <c r="Q120" s="12"/>
+    </row>
+    <row r="121" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="10">
         <v>707.66</v>
@@ -5654,17 +7312,25 @@
       <c r="G121" s="10">
         <v>683.81</v>
       </c>
-      <c r="H121" s="10"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
+      <c r="H121" s="10">
+        <v>220.59</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>539</v>
+      </c>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
-      <c r="O121" s="13"/>
-    </row>
-    <row r="122" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="30"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="12"/>
+    </row>
+    <row r="122" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="26"/>
       <c r="B122" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122" s="10">
         <v>156.96</v>
@@ -5678,93 +7344,123 @@
       <c r="G122" s="10">
         <v>149.78</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
+      <c r="H122" s="10">
+        <v>164.14</v>
+      </c>
+      <c r="J122" s="10">
+        <v>185.1</v>
+      </c>
+      <c r="K122" s="10">
+        <v>194.66</v>
+      </c>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
-      <c r="O122" s="13"/>
-    </row>
-    <row r="123" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="31"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="12"/>
+    </row>
+    <row r="123" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="27"/>
       <c r="B123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G123" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H123" s="18">
+        <v>124.29</v>
+      </c>
+      <c r="J123" s="10">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="K123" s="10">
+        <v>81.709999999999994</v>
+      </c>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
-      <c r="O123" s="13"/>
-    </row>
-    <row r="124" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="36" t="s">
-        <v>69</v>
+      <c r="O123" s="7"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="12"/>
+    </row>
+    <row r="124" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H124" s="10"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="K124" s="17" t="s">
+        <v>542</v>
+      </c>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
-      <c r="O124" s="13"/>
-    </row>
-    <row r="125" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="30"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="12"/>
+    </row>
+    <row r="125" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="26"/>
       <c r="B125" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H125" s="10"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>543</v>
+      </c>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
-      <c r="O125" s="13"/>
-    </row>
-    <row r="126" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="31"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="12"/>
+    </row>
+    <row r="126" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="27"/>
       <c r="B126" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" s="10">
         <v>59.72</v>
@@ -5778,25 +7474,33 @@
       <c r="G126" s="10">
         <v>360.33</v>
       </c>
-      <c r="H126" s="10"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
+      <c r="H126" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="J126" s="10">
+        <v>846</v>
+      </c>
+      <c r="K126" s="17" t="s">
+        <v>492</v>
+      </c>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
-      <c r="O126" s="13"/>
-    </row>
-    <row r="127" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="29" t="s">
-        <v>314</v>
+      <c r="O126" s="7"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="12"/>
+    </row>
+    <row r="127" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="31" t="s">
+        <v>307</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>214</v>
+        <v>67</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="E127" s="10">
         <v>1.06</v>
@@ -5804,67 +7508,91 @@
       <c r="G127" s="10">
         <v>1.37</v>
       </c>
-      <c r="H127" s="10"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
+      <c r="H127" s="10">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J127" s="10">
+        <v>4.05</v>
+      </c>
+      <c r="K127" s="10">
+        <v>1.96</v>
+      </c>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
-      <c r="O127" s="13"/>
-    </row>
-    <row r="128" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="30"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="36"/>
+      <c r="Q127" s="12"/>
+    </row>
+    <row r="128" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="26"/>
       <c r="B128" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="H128" s="10"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="K128" s="17" t="s">
+        <v>538</v>
+      </c>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
-      <c r="O128" s="13"/>
-    </row>
-    <row r="129" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="31"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="36"/>
+      <c r="Q128" s="12"/>
+    </row>
+    <row r="129" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="27"/>
       <c r="B129" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>216</v>
+        <v>69</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E129" s="10">
         <v>0</v>
       </c>
-      <c r="G129" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H129" s="10"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
+      <c r="G129" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
-      <c r="O129" s="13"/>
-    </row>
-    <row r="130" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="29" t="s">
-        <v>315</v>
+      <c r="O129" s="7"/>
+      <c r="P129" s="36"/>
+      <c r="Q129" s="12"/>
+    </row>
+    <row r="130" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="31" t="s">
+        <v>308</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" s="10">
         <v>10.67</v>
@@ -5878,17 +7606,25 @@
       <c r="G130" s="10">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H130" s="10"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
+      <c r="H130" s="10">
+        <v>15.14</v>
+      </c>
+      <c r="J130" s="10">
+        <v>11.28</v>
+      </c>
+      <c r="K130" s="10">
+        <v>11.87</v>
+      </c>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
-      <c r="O130" s="13"/>
-    </row>
-    <row r="131" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="30"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="12"/>
+    </row>
+    <row r="131" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="26"/>
       <c r="B131" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C131" s="10">
         <v>8.09</v>
@@ -5902,17 +7638,25 @@
       <c r="G131" s="10">
         <v>7.01</v>
       </c>
-      <c r="H131" s="10"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
+      <c r="H131" s="10">
+        <v>9.25</v>
+      </c>
+      <c r="J131" s="10">
+        <v>6.89</v>
+      </c>
+      <c r="K131" s="10">
+        <v>9.56</v>
+      </c>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
-      <c r="O131" s="13"/>
-    </row>
-    <row r="132" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="31"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="36"/>
+      <c r="Q131" s="12"/>
+    </row>
+    <row r="132" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="27"/>
       <c r="B132" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C132" s="10">
         <v>4.4000000000000004</v>
@@ -5926,19 +7670,27 @@
       <c r="G132" s="10">
         <v>4.53</v>
       </c>
-      <c r="H132" s="10"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
+      <c r="H132" s="10">
+        <v>6.74</v>
+      </c>
+      <c r="J132" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="K132" s="10">
+        <v>3.93</v>
+      </c>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
-      <c r="O132" s="13"/>
-    </row>
-    <row r="133" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29" t="s">
-        <v>319</v>
+      <c r="O132" s="7"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="12"/>
+    </row>
+    <row r="133" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="31" t="s">
+        <v>312</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="10">
         <v>2.8</v>
@@ -5952,69 +7704,91 @@
       <c r="G133" s="10">
         <v>1.73</v>
       </c>
-      <c r="H133" s="10"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
+      <c r="H133" s="10">
+        <v>1.64</v>
+      </c>
+      <c r="J133" s="10">
+        <v>3.02</v>
+      </c>
+      <c r="K133" s="10">
+        <v>1.88</v>
+      </c>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-      <c r="O133" s="13"/>
-    </row>
-    <row r="134" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="30"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="12"/>
+    </row>
+    <row r="134" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="26"/>
       <c r="B134" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>219</v>
+        <v>70</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="G134" s="10">
         <v>0</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="H134" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>540</v>
+      </c>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-      <c r="O134" s="13"/>
-    </row>
-    <row r="135" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="31"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="36"/>
+      <c r="Q134" s="12"/>
+    </row>
+    <row r="135" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="27"/>
       <c r="B135" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G135" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>541</v>
+      </c>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-      <c r="O135" s="13"/>
-    </row>
-    <row r="136" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="29" t="s">
-        <v>320</v>
+      <c r="O135" s="7"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="12"/>
+    </row>
+    <row r="136" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="31" t="s">
+        <v>313</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="10">
         <v>14.79</v>
@@ -6028,17 +7802,25 @@
       <c r="G136" s="10">
         <v>14.79</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
+      <c r="H136" s="10">
+        <v>10.48</v>
+      </c>
+      <c r="J136" s="10">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="K136" s="10">
+        <v>11.59</v>
+      </c>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
-      <c r="O136" s="13"/>
-    </row>
-    <row r="137" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="30"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="36"/>
+      <c r="Q136" s="12"/>
+    </row>
+    <row r="137" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="26"/>
       <c r="B137" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C137" s="10">
         <v>8.07</v>
@@ -6052,61 +7834,79 @@
       <c r="G137" s="10">
         <v>8.06</v>
       </c>
-      <c r="H137" s="10"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="H137" s="10">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="J137" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="K137" s="10">
+        <v>9.7100000000000009</v>
+      </c>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
-      <c r="O137" s="13"/>
-    </row>
-    <row r="138" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="31"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="36"/>
+      <c r="Q137" s="12"/>
+    </row>
+    <row r="138" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="27"/>
       <c r="B138" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D138" s="10">
         <v>2.27</v>
       </c>
-      <c r="E138" s="22" t="s">
-        <v>75</v>
+      <c r="E138" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="G138" s="10">
         <v>2.33</v>
       </c>
-      <c r="H138" s="10"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
+      <c r="H138" s="10">
+        <v>7.18</v>
+      </c>
+      <c r="J138" s="10">
+        <v>5.24</v>
+      </c>
+      <c r="K138" s="10">
+        <v>7.01</v>
+      </c>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
-      <c r="O138" s="13"/>
-    </row>
-    <row r="139" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="33"/>
-      <c r="K139" s="34"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="12"/>
+    </row>
+    <row r="139" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="24"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
-      <c r="O139" s="13"/>
-    </row>
-    <row r="140" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="35" t="s">
-        <v>77</v>
+      <c r="O139" s="7"/>
+      <c r="P139" s="36"/>
+      <c r="Q139" s="12"/>
+    </row>
+    <row r="140" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" s="10">
         <v>0.75700000000000001</v>
@@ -6120,17 +7920,25 @@
       <c r="G140" s="10">
         <v>0.88600000000000001</v>
       </c>
-      <c r="H140" s="10"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="H140" s="10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="J140" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="K140" s="10">
+        <v>0.72199999999999998</v>
+      </c>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
-      <c r="O140" s="13"/>
-    </row>
-    <row r="141" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="30"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="36"/>
+      <c r="Q140" s="12"/>
+    </row>
+    <row r="141" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="26"/>
       <c r="B141" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C141" s="10">
         <v>0.24399999999999999</v>
@@ -6144,45 +7952,59 @@
       <c r="G141" s="10">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H141" s="10"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
+      <c r="H141" s="10">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="J141" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K141" s="10">
+        <v>0.71199999999999997</v>
+      </c>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
-      <c r="O141" s="13"/>
-    </row>
-    <row r="142" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="31"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="36"/>
+      <c r="Q141" s="12"/>
+    </row>
+    <row r="142" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="27"/>
       <c r="B142" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G142" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H142" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J142" s="19">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K142" s="18">
+        <v>0.49199999999999999</v>
+      </c>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-      <c r="O142" s="13"/>
-    </row>
-    <row r="143" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="35" t="s">
-        <v>78</v>
+      <c r="O142" s="7"/>
+      <c r="P142" s="36"/>
+      <c r="Q142" s="12"/>
+    </row>
+    <row r="143" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" s="10">
         <v>0.19500000000000001</v>
@@ -6196,17 +8018,25 @@
       <c r="G143" s="10">
         <v>0.314</v>
       </c>
-      <c r="H143" s="10"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
+      <c r="H143" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J143" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K143" s="10">
+        <v>1.6E-2</v>
+      </c>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="13"/>
-    </row>
-    <row r="144" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="30"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="36"/>
+      <c r="Q143" s="12"/>
+    </row>
+    <row r="144" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="26"/>
       <c r="B144" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C144" s="10">
         <v>6.9000000000000006E-2</v>
@@ -6220,45 +8050,59 @@
       <c r="G144" s="10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H144" s="10"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
+      <c r="H144" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="J144" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K144" s="10">
+        <v>1E-3</v>
+      </c>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-      <c r="O144" s="13"/>
-    </row>
-    <row r="145" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="31"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="36"/>
+      <c r="Q144" s="12"/>
+    </row>
+    <row r="145" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="27"/>
       <c r="B145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G145" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J145" s="19">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-      <c r="O145" s="13"/>
-    </row>
-    <row r="146" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="35" t="s">
-        <v>79</v>
+      <c r="O145" s="7"/>
+      <c r="P145" s="36"/>
+      <c r="Q145" s="12"/>
+    </row>
+    <row r="146" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" s="10">
         <v>8.5999999999999993E-2</v>
@@ -6272,17 +8116,25 @@
       <c r="G146" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H146" s="10"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
+      <c r="H146" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J146" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K146" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-      <c r="O146" s="13"/>
-    </row>
-    <row r="147" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="30"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="36"/>
+      <c r="Q146" s="12"/>
+    </row>
+    <row r="147" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="26"/>
       <c r="B147" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147" s="10">
         <v>4.0000000000000001E-3</v>
@@ -6296,45 +8148,59 @@
       <c r="G147" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H147" s="10"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
+      <c r="H147" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="J147" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="K147" s="10">
+        <v>0</v>
+      </c>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-      <c r="O147" s="13"/>
-    </row>
-    <row r="148" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="31"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="36"/>
+      <c r="Q147" s="12"/>
+    </row>
+    <row r="148" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="27"/>
       <c r="B148" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G148" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H148" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J148" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K148" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-      <c r="O148" s="13"/>
-    </row>
-    <row r="149" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="35" t="s">
-        <v>80</v>
+      <c r="O148" s="7"/>
+      <c r="P148" s="36"/>
+      <c r="Q148" s="12"/>
+    </row>
+    <row r="149" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" s="10">
         <v>1E-3</v>
@@ -6348,17 +8214,25 @@
       <c r="G149" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H149" s="10"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
+      <c r="H149" s="10">
+        <v>0</v>
+      </c>
+      <c r="J149" s="10">
+        <v>0</v>
+      </c>
+      <c r="K149" s="10">
+        <v>0</v>
+      </c>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="13"/>
-    </row>
-    <row r="150" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="30"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="36"/>
+      <c r="Q149" s="12"/>
+    </row>
+    <row r="150" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="26"/>
       <c r="B150" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C150" s="10">
         <v>0</v>
@@ -6372,45 +8246,59 @@
       <c r="G150" s="10">
         <v>0</v>
       </c>
-      <c r="H150" s="10"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
+      <c r="H150" s="10">
+        <v>0</v>
+      </c>
+      <c r="J150" s="10">
+        <v>0</v>
+      </c>
+      <c r="K150" s="10">
+        <v>0</v>
+      </c>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="13"/>
-    </row>
-    <row r="151" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="31"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="36"/>
+      <c r="Q150" s="12"/>
+    </row>
+    <row r="151" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="27"/>
       <c r="B151" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G151" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J151" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K151" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="13"/>
-    </row>
-    <row r="152" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="35" t="s">
-        <v>81</v>
+      <c r="O151" s="7"/>
+      <c r="P151" s="36"/>
+      <c r="Q151" s="12"/>
+    </row>
+    <row r="152" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" s="10">
         <v>1</v>
@@ -6424,17 +8312,25 @@
       <c r="G152" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H152" s="10"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
+      <c r="H152" s="10">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J152" s="10">
+        <v>0.312</v>
+      </c>
+      <c r="K152" s="10">
+        <v>0.497</v>
+      </c>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="13"/>
-    </row>
-    <row r="153" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="30"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="36"/>
+      <c r="Q152" s="12"/>
+    </row>
+    <row r="153" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="26"/>
       <c r="B153" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C153" s="10">
         <v>0.68300000000000005</v>
@@ -6448,17 +8344,25 @@
       <c r="G153" s="10">
         <v>0</v>
       </c>
-      <c r="H153" s="10"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
+      <c r="H153" s="10">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="J153" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K153" s="10">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-      <c r="O153" s="13"/>
-    </row>
-    <row r="154" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="31"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="36"/>
+      <c r="Q153" s="12"/>
+    </row>
+    <row r="154" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="27"/>
       <c r="B154" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C154" s="10">
         <v>0.217</v>
@@ -6469,246 +8373,324 @@
       <c r="E154" s="10">
         <v>0.19900000000000001</v>
       </c>
-      <c r="G154" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H154" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
+      <c r="G154" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H154" s="18">
+        <v>0.255</v>
+      </c>
+      <c r="J154" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K154" s="10">
+        <v>0.27400000000000002</v>
+      </c>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-      <c r="O154" s="13"/>
-    </row>
-    <row r="155" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="35" t="s">
-        <v>82</v>
+      <c r="O154" s="7"/>
+      <c r="P154" s="36"/>
+      <c r="Q154" s="12"/>
+    </row>
+    <row r="155" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="H155" s="10"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="J155" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="K155" s="17" t="s">
+        <v>524</v>
+      </c>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-      <c r="O155" s="13"/>
-    </row>
-    <row r="156" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="30"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="36"/>
+      <c r="Q155" s="12"/>
+    </row>
+    <row r="156" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="26"/>
       <c r="B156" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H156" s="10"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="J156" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="K156" s="17" t="s">
+        <v>525</v>
+      </c>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-      <c r="O156" s="13"/>
-    </row>
-    <row r="157" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="31"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="36"/>
+      <c r="Q156" s="12"/>
+    </row>
+    <row r="157" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="27"/>
       <c r="B157" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H157" s="10"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="J157" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="K157" s="17" t="s">
+        <v>526</v>
+      </c>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-      <c r="O157" s="13"/>
-    </row>
-    <row r="158" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="35" t="s">
-        <v>92</v>
+      <c r="O157" s="7"/>
+      <c r="P157" s="36"/>
+      <c r="Q157" s="12"/>
+    </row>
+    <row r="158" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H158" s="10"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="K158" s="17" t="s">
+        <v>528</v>
+      </c>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-      <c r="O158" s="13"/>
-    </row>
-    <row r="159" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="30"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="12"/>
+    </row>
+    <row r="159" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="26"/>
       <c r="B159" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H159" s="10"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="J159" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="K159" s="17" t="s">
+        <v>529</v>
+      </c>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-      <c r="O159" s="13"/>
-    </row>
-    <row r="160" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="31"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="36"/>
+      <c r="Q159" s="12"/>
+    </row>
+    <row r="160" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="27"/>
       <c r="B160" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G160" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H160" s="10"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="J160" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="K160" s="17" t="s">
+        <v>527</v>
+      </c>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
-      <c r="O160" s="13"/>
-    </row>
-    <row r="161" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="35" t="s">
-        <v>102</v>
+      <c r="O160" s="7"/>
+      <c r="P160" s="36"/>
+      <c r="Q160" s="12"/>
+    </row>
+    <row r="161" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G161" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="H161" s="10"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="J161" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="K161" s="17" t="s">
+        <v>530</v>
+      </c>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
-      <c r="O161" s="13"/>
-    </row>
-    <row r="162" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="30"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="36"/>
+      <c r="Q161" s="12"/>
+    </row>
+    <row r="162" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="26"/>
       <c r="B162" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H162" s="10"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="K162" s="17" t="s">
+        <v>531</v>
+      </c>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
-      <c r="O162" s="13"/>
-    </row>
-    <row r="163" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="31"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="36"/>
+      <c r="Q162" s="12"/>
+    </row>
+    <row r="163" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="27"/>
       <c r="B163" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G163" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H163" s="10"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="J163" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="K163" s="17" t="s">
+        <v>532</v>
+      </c>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
-      <c r="O163" s="13"/>
-    </row>
-    <row r="164" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="35" t="s">
-        <v>111</v>
+      <c r="O163" s="7"/>
+      <c r="P163" s="36"/>
+      <c r="Q163" s="12"/>
+    </row>
+    <row r="164" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" s="10">
         <v>1.36</v>
@@ -6722,67 +8704,91 @@
       <c r="G164" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H164" s="10"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
+      <c r="H164" s="10">
+        <v>1.571</v>
+      </c>
+      <c r="J164" s="10">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="K164" s="10">
+        <v>1.6319999999999999</v>
+      </c>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
-      <c r="O164" s="13"/>
-    </row>
-    <row r="165" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="30"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="36"/>
+      <c r="Q164" s="12"/>
+    </row>
+    <row r="165" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="26"/>
       <c r="B165" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D165" s="10">
         <v>1</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G165" s="10">
         <v>1.9</v>
       </c>
-      <c r="H165" s="10"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
+      <c r="H165" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="J165" s="10">
+        <v>2</v>
+      </c>
+      <c r="K165" s="10">
+        <v>1.4</v>
+      </c>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
-      <c r="O165" s="13"/>
-    </row>
-    <row r="166" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="31"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="36"/>
+      <c r="Q165" s="12"/>
+    </row>
+    <row r="166" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="27"/>
       <c r="B166" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G166" s="10">
         <v>0</v>
       </c>
-      <c r="H166" s="10"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
+      <c r="H166" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="J166" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="K166" s="17" t="s">
+        <v>533</v>
+      </c>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
-      <c r="O166" s="13"/>
-    </row>
-    <row r="167" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="35" t="s">
-        <v>116</v>
+      <c r="O166" s="7"/>
+      <c r="P166" s="36"/>
+      <c r="Q166" s="12"/>
+    </row>
+    <row r="167" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" s="10">
         <v>2</v>
@@ -6796,17 +8802,25 @@
       <c r="G167" s="10">
         <v>2</v>
       </c>
-      <c r="H167" s="10"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
+      <c r="H167" s="10">
+        <v>2</v>
+      </c>
+      <c r="J167" s="10">
+        <v>2</v>
+      </c>
+      <c r="K167" s="10">
+        <v>2</v>
+      </c>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
-      <c r="O167" s="13"/>
-    </row>
-    <row r="168" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="30"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="36"/>
+      <c r="Q167" s="12"/>
+    </row>
+    <row r="168" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="26"/>
       <c r="B168" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C168" s="10">
         <v>2</v>
@@ -6820,45 +8834,59 @@
       <c r="G168" s="10">
         <v>2</v>
       </c>
-      <c r="H168" s="10"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
+      <c r="H168" s="10">
+        <v>2</v>
+      </c>
+      <c r="J168" s="10">
+        <v>2</v>
+      </c>
+      <c r="K168" s="10">
+        <v>2</v>
+      </c>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
-      <c r="O168" s="13"/>
-    </row>
-    <row r="169" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="31"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="36"/>
+      <c r="Q168" s="12"/>
+    </row>
+    <row r="169" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="27"/>
       <c r="B169" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E169" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H169" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J169" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K169" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
-      <c r="O169" s="13"/>
-    </row>
-    <row r="170" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="35" t="s">
-        <v>117</v>
+      <c r="O169" s="7"/>
+      <c r="P169" s="36"/>
+      <c r="Q169" s="12"/>
+    </row>
+    <row r="170" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="10">
         <v>2</v>
@@ -6872,69 +8900,91 @@
       <c r="G170" s="10">
         <v>3</v>
       </c>
-      <c r="H170" s="10"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
+      <c r="H170" s="17">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="J170" s="10">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="K170" s="10">
+        <v>2.5</v>
+      </c>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="13"/>
-    </row>
-    <row r="171" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="30"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="36"/>
+      <c r="Q170" s="12"/>
+    </row>
+    <row r="171" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="26"/>
       <c r="B171" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D171" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G171" s="10">
         <v>1.9</v>
       </c>
-      <c r="H171" s="10"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
+      <c r="H171" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="J171" s="10">
+        <v>2</v>
+      </c>
+      <c r="K171" s="10">
+        <v>1.5</v>
+      </c>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
-      <c r="O171" s="13"/>
-    </row>
-    <row r="172" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="31"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="36"/>
+      <c r="Q171" s="12"/>
+    </row>
+    <row r="172" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="27"/>
       <c r="B172" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J172" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>534</v>
+      </c>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
-      <c r="O172" s="13"/>
-    </row>
-    <row r="173" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="35" t="s">
-        <v>120</v>
+      <c r="O172" s="7"/>
+      <c r="P172" s="36"/>
+      <c r="Q172" s="12"/>
+    </row>
+    <row r="173" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" s="10">
         <v>279.3</v>
@@ -6948,17 +8998,25 @@
       <c r="G173" s="10">
         <v>364</v>
       </c>
-      <c r="H173" s="10"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
+      <c r="H173" s="10">
+        <v>399.9</v>
+      </c>
+      <c r="J173" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="K173" s="17" t="s">
+        <v>514</v>
+      </c>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
-      <c r="O173" s="13"/>
-    </row>
-    <row r="174" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="30"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="36"/>
+      <c r="Q173" s="12"/>
+    </row>
+    <row r="174" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="26"/>
       <c r="B174" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C174" s="10">
         <v>159.69999999999999</v>
@@ -6972,17 +9030,25 @@
       <c r="G174" s="10">
         <v>165.5</v>
       </c>
-      <c r="H174" s="10"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
+      <c r="H174" s="10">
+        <v>177.5</v>
+      </c>
+      <c r="J174" s="10">
+        <v>202.1</v>
+      </c>
+      <c r="K174" s="10">
+        <v>218.3</v>
+      </c>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
-      <c r="O174" s="13"/>
-    </row>
-    <row r="175" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="31"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="36"/>
+      <c r="Q174" s="12"/>
+    </row>
+    <row r="175" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="27"/>
       <c r="B175" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C175" s="10">
         <v>14.6</v>
@@ -6996,67 +9062,91 @@
       <c r="G175" s="10">
         <v>20.100000000000001</v>
       </c>
-      <c r="H175" s="10"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
+      <c r="H175" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="J175" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="K175" s="10">
+        <v>20.100000000000001</v>
+      </c>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="13"/>
-    </row>
-    <row r="176" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="35" t="s">
-        <v>121</v>
+      <c r="O175" s="7"/>
+      <c r="P175" s="36"/>
+      <c r="Q175" s="12"/>
+    </row>
+    <row r="176" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G176" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="H176" s="10"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K176" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
-      <c r="O176" s="13"/>
-    </row>
-    <row r="177" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="30"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="36"/>
+      <c r="Q176" s="12"/>
+    </row>
+    <row r="177" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="26"/>
       <c r="B177" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G177" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="H177" s="10"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J177" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K177" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
-      <c r="O177" s="13"/>
-    </row>
-    <row r="178" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="31"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="36"/>
+      <c r="Q177" s="12"/>
+    </row>
+    <row r="178" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="27"/>
       <c r="B178" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C178" s="10">
         <v>719.6</v>
@@ -7070,15 +9160,73 @@
       <c r="G178" s="10">
         <v>764.5</v>
       </c>
-      <c r="H178" s="10"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
+      <c r="H178" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J178" s="10">
+        <v>721.6</v>
+      </c>
+      <c r="K178" s="10">
+        <v>970.1</v>
+      </c>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
-      <c r="O178" s="13"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="36"/>
+      <c r="Q178" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="L1:L1048576"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A146:A148"/>
     <mergeCell ref="A88:K88"/>
     <mergeCell ref="A114:K114"/>
     <mergeCell ref="A139:K139"/>
@@ -7095,63 +9243,16 @@
     <mergeCell ref="A167:A169"/>
     <mergeCell ref="A164:A166"/>
     <mergeCell ref="A161:A163"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="L1:L1048576"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A54:K54"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1" xr:uid="{6EA40B7C-754F-1140-80B3-6583AD26A017}"/>
-    <hyperlink ref="O9" r:id="rId2" xr:uid="{F3952803-94D6-5B4C-9D34-E4BBF2DD9433}"/>
-    <hyperlink ref="O13" r:id="rId3" xr:uid="{E32A742C-048E-6D49-9EB9-01E466363B08}"/>
-    <hyperlink ref="O12" r:id="rId4" xr:uid="{D3684AB1-2320-D544-995B-42AFB016B1C4}"/>
-    <hyperlink ref="O10" r:id="rId5" xr:uid="{7CC1A10D-CDCA-8544-84C6-5B6F32DBEA2E}"/>
+    <hyperlink ref="P5" r:id="rId1" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=5%2F6%2F2018+18%3A19&amp;ce=5%2F6%2F2018+19%3A13&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=xlarge&amp;metric_group=NOGROUPS_%7C_load" xr:uid="{134B862A-A165-CF4F-A413-74394AAE265A}"/>
+    <hyperlink ref="P6" r:id="rId2" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A15&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load" xr:uid="{BD0A75EF-05D9-384C-8074-DFFB170F7551}"/>
+    <hyperlink ref="P7" r:id="rId3" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+17%3A57&amp;ce=05%2F06%2F2018+19%3A04&amp;m=load_one&amp;c=cluster&amp;h=cindy&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_load" xr:uid="{7811B326-AC1B-CA48-A80C-2BB36261F282}"/>
+    <hyperlink ref="P9" r:id="rId4" display="http://35.229.127.6/ganglia/?r=hour&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+03%3A01&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network" xr:uid="{6A4E68A5-F2C4-DF43-8BB3-9A3B577F7711}"/>
+    <hyperlink ref="P10" r:id="rId5" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F07%2F2018+01%3A46&amp;ce=05%2F07%2F2018+04%3A50&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network" xr:uid="{A87CE071-557C-254A-A996-3BBAA5E20568}"/>
+    <hyperlink ref="P12" r:id="rId6" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A33&amp;m=load_one&amp;c=cluster&amp;h=ann&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network" xr:uid="{667AAD1A-3B99-9945-B690-E9025EBC340D}"/>
+    <hyperlink ref="P13" r:id="rId7" display="http://35.229.127.6/ganglia/?r=custom&amp;cs=05%2F06%2F2018+22%3A26&amp;ce=05%2F07%2F2018+01%3A01&amp;m=load_one&amp;c=cluster&amp;h=bob&amp;tab=m&amp;vn=&amp;hide-hf=false&amp;mc=2&amp;z=small&amp;metric_group=NOGROUPS_%7C_diskstat_%7C_memory_%7C_memory_vm_%7C_network" xr:uid="{E1DD54A6-A78F-2B4F-91AB-32537D28A942}"/>
+    <hyperlink ref="O4" r:id="rId8" xr:uid="{F5001C34-EB08-3F41-914C-F9BCE812B111}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
